--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +451,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mês</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Ocorrências</t>
         </is>
       </c>
@@ -467,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +466,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01/04/2015</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,22 +486,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -521,22 +506,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>18</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,22 +526,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01/02/2015</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -567,22 +546,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -590,22 +566,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01/07/2015</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -613,22 +586,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01/06/2015</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -636,22 +606,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>17</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -659,22 +626,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>18</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -682,22 +646,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>21</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -705,22 +666,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -728,22 +686,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>17</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01/09/2015</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -751,22 +706,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>54</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -774,22 +726,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>37</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -797,22 +746,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>52</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -820,22 +766,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>58</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -843,22 +786,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>55</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -866,22 +806,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>56</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -889,22 +826,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>13</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>01/06/2016</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -912,22 +846,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -935,22 +866,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>10</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01/03/2016</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -958,22 +886,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>17</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01/11/2016</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -981,22 +906,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>11</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1004,22 +926,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>16</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1027,22 +946,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>52</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1050,22 +966,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>43</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1073,22 +986,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>48</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1096,22 +1006,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>39</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>01/02/2017</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1119,22 +1026,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>29</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1142,22 +1046,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>25</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1165,22 +1066,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>33</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1188,22 +1086,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>42</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01/05/2017</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1211,22 +1106,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>53</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1234,22 +1126,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>61</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/11/2017</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1257,22 +1146,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>59</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1280,22 +1166,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>43</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/09/2017</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1303,22 +1186,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>56</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1326,22 +1206,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>60</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>01/08/2018</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1349,22 +1226,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>55</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1372,22 +1246,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>49</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1395,22 +1266,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>71</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1418,22 +1286,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>51</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1441,22 +1306,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>53</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/06/2018</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1464,22 +1326,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>72</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1487,22 +1346,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>23</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1510,22 +1366,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>16</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1533,22 +1386,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>66</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1556,22 +1406,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>60</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1579,22 +1426,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>60</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1602,22 +1446,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>39</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1625,22 +1466,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>51</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1648,22 +1486,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>37</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1671,22 +1506,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>50</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1694,22 +1526,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>41</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1717,22 +1546,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>59</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1740,22 +1566,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>59</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01/05/2019</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1763,22 +1586,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>53</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01/03/2019</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1786,22 +1606,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>55</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1809,22 +1626,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>46</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1832,22 +1646,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>38</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01/09/2019</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1855,22 +1666,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>40</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1878,22 +1686,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>53</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1901,22 +1706,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>47</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1924,22 +1726,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>44</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1947,22 +1746,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>37</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1970,22 +1766,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>49</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1993,22 +1786,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>44</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2016,22 +1806,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>56</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2039,22 +1826,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>61</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01/03/2020</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2062,22 +1846,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>55</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01/11/2020</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2085,22 +1866,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>38</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2108,22 +1886,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>44</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2131,22 +1906,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>62</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2154,22 +1926,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>41</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01/08/2021</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2177,22 +1946,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>41</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2200,22 +1966,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>61</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2223,22 +1986,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>34</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2246,22 +2006,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>58</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2269,22 +2026,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>48</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2292,22 +2046,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>54</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2315,22 +2066,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>43</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2338,22 +2086,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>37</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2361,22 +2106,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>26</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2384,22 +2126,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>39</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01/09/2021</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2407,22 +2146,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>janeiro</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>28</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2430,22 +2166,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>39</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2453,22 +2186,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>março</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>43</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2476,22 +2206,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>38</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2499,22 +2226,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>41</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2522,22 +2246,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>junho</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>28</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2545,22 +2266,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>julho</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>34</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2568,22 +2286,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>33</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2591,22 +2306,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>37</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2614,22 +2326,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>41</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2637,22 +2346,19 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>45</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2660,15 +2366,3852 @@
           <t>Estupro</t>
         </is>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>dezembro</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/04/2015</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/02/2015</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/07/2015</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/06/2015</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01/09/2015</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01/06/2016</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01/03/2016</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01/11/2016</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01/02/2017</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>01/05/2017</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01/11/2017</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01/09/2017</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>01/08/2018</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>01/06/2018</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>01/05/2019</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>01/03/2019</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>01/09/2019</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>01/03/2020</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>01/11/2020</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>01/08/2021</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>01/09/2021</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>01/08/2021</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>01/09/2021</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>01/03/2020</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>01/11/2020</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>01/03/2019</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>01/05/2019</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>01/09/2019</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>01/06/2018</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>01/08/2018</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>01/02/2017</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>01/05/2017</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>01/09/2017</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>01/11/2017</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>01/03/2016</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>01/06/2016</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>01/11/2016</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>01/02/2015</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>01/04/2015</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>01/06/2015</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>01/07/2015</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>01/09/2015</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
         <v>41</v>
       </c>
     </row>

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,6 +579,206 @@
         <v>30.94915184205653</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>22.0288630216873</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>22.68108661533515</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>22.97738214630375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>19.75088912439359</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>16.46232929160346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>24.82391626997932</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>23.96515308729109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>31.84414120005429</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>26.60833819930982</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Taxa de estupro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>33.73995178052012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9BAE10-2347-41B7-9EE5-ED83C639B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Nordeste</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Posição relativamente às demais UF</t>
-  </si>
-  <si>
-    <t>Roubo de carga</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,57 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_g25.5" xfId="1" xr:uid="{4CE72F0B-FCFE-44F1-827C-E71D44628AE4}"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -259,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,129 +420,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Região</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Posição relativamente às demais UF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43830</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.30449318848737345</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.180995147520095</v>
+      </c>
+      <c r="E4" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43830</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3.3856424003324239</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43830</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.3453891564704612</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2714927212801425</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.398196894573645</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.120499992188377</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9965163062802329</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.236860258184061</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.167280128576202</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2369650953367909</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.834976557138083</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2.561868745585626</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.752834183172896</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.704454015378626</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.251597631963985</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3277460851110059</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variável</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -460,396 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01-01-2019</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01-01-2020</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>01-01-2021</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.180995147520095</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>01-01-2022</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>01-01-2023</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2714927212801425</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>01-01-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>01-01-2019</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.398196894573645</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>01-01-2020</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.120499992188377</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>01-01-2021</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9965163062802329</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>01-01-2022</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1.236860258184061</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>01-01-2023</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.167280128576202</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>01-01-2024</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2369650953367909</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>01-01-2019</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3.834976557138083</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>01-01-2020</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2.561868745585626</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>01-01-2021</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2.752834183172896</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>01-01-2022</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2.704454015378626</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>01-01-2023</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2.251597631963985</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>01-01-2024</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3277460851110059</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,751 @@
           <t>Posição relativamente às demais UF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Faltam dados para todos os Estados</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.388828768431485</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.476597826696248</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.980839774621425</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.243886193488935</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.390958308958045</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.425164394266059</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.609467774228938</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.57993150212722</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.128317694873353</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.74596789745631</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.605626159567575</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.863234877615129</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.994818557779297</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.763794827719464</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.330897691605549</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.060919104018018</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.940964788979638</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.253836978134729</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.202308268173396</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.182263557518553</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.171036068086038</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.25247775355394</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.04176265115991588</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.980839774621425</v>
+        <v>4.979662106289076</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.425164394266059</v>
+        <v>2.488389810470949</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.609467774228938</v>
+        <v>2.628892527610291</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.57993150212722</v>
+        <v>2.577714676692625</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.128317694873353</v>
+        <v>2.135650594066437</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.74596789745631</v>
+        <v>1.914602523047483</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -708,12 +708,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.605626159567575</v>
+        <v>0.9151289898246674</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -737,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.863234877615129</v>
+        <v>1.605626159567575</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.994818557779297</v>
+        <v>1.863234877615129</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.763794827719464</v>
+        <v>1.99128555278225</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.330897691605549</v>
+        <v>1.763794827719464</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -833,7 +833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.060919104018018</v>
+        <v>1.330897691605549</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
@@ -857,7 +857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.940964788979638</v>
+        <v>1.060919104018018</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
@@ -881,7 +881,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.253836978134729</v>
+        <v>0.9992390491236974</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -905,7 +905,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.202308268173396</v>
+        <v>1.247186501830941</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -929,7 +929,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.182263557518553</v>
+        <v>1.226836841050035</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -948,12 +948,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -962,11 +962,9 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23</v>
-      </c>
+        <v>1.186051307316237</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
         <v>1</v>
       </c>
@@ -974,12 +972,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -988,11 +986,9 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>23</v>
-      </c>
+        <v>0.6084777557768808</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
         <v>1</v>
       </c>
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1017,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1031,7 +1027,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1043,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1057,7 +1053,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1069,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1083,7 +1079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1095,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1118,10 +1114,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.171036068086038</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>25.5</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1170,10 +1166,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.25247775355394</v>
+        <v>0.171036068086038</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1187,21 +1183,99 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2945573791462633</v>
+      </c>
+      <c r="E32" t="n">
+        <v>19</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Roubo de carga</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0.04176265115991588</v>
-      </c>
-      <c r="E31" t="n">
-        <v>23</v>
-      </c>
-      <c r="F31" t="b">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F34" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9151289898246674</v>
+        <v>0.9344326692903623</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9344326692903623</v>
+        <v>0.9670908864767381</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6084777557768808</v>
+        <v>0.653624311169382</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">

--- a/Data/g19.12.xlsx
+++ b/Data/g19.12.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9670908864767381</v>
+        <v>1.095007618563253</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.653624311169382</v>
+        <v>0.7464360088890272</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
